--- a/output/fit_clients/fit_round_447.xlsx
+++ b/output/fit_clients/fit_round_447.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1907933788.811398</v>
+        <v>1602262591.520109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0830357028331989</v>
+        <v>0.08158479205808124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03292056338390184</v>
+        <v>0.04008257524992093</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>953966877.6692277</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2140416221.351593</v>
+        <v>1824509371.268196</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1227025071984853</v>
+        <v>0.1146755417595067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03527102520681628</v>
+        <v>0.04711058479972923</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1070208172.507123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3793343715.788416</v>
+        <v>3590377619.039646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1313979105769052</v>
+        <v>0.145148136345021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02860867353724233</v>
+        <v>0.03747837653149941</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>162</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1896671857.444519</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2774338437.830184</v>
+        <v>3451767901.070245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06847088006864092</v>
+        <v>0.1068668768772808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03242358922034826</v>
+        <v>0.03894873839114035</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>165</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1387169303.746162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1824369708.843306</v>
+        <v>2333663338.592277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09020260464915889</v>
+        <v>0.113145907167638</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04906876299194601</v>
+        <v>0.03733159330852116</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>912184903.0425391</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2677510158.545774</v>
+        <v>2695695958.651226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1020409015515159</v>
+        <v>0.07012286128748238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04544291981963074</v>
+        <v>0.03472133610165376</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>141</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1338755075.285636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3709613514.356113</v>
+        <v>3305484287.990473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1456741857274762</v>
+        <v>0.2168724788423388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0295933838008112</v>
+        <v>0.029202399604114</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>143</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1854806887.25199</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1702855738.36616</v>
+        <v>1852129667.500283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1790170360213377</v>
+        <v>0.1581645596936379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02707811236205893</v>
+        <v>0.02690583625914057</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>851427937.0329728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4568723010.387102</v>
+        <v>3926270631.077089</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1686792530434833</v>
+        <v>0.1954072207926443</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04035967545383622</v>
+        <v>0.04890064032822437</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>188</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2284361571.136404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4076848627.600391</v>
+        <v>3895156331.169695</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1470485258922174</v>
+        <v>0.1658215872451584</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03301303654128204</v>
+        <v>0.04693915437852696</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>185</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2038424331.855824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2198974229.870175</v>
+        <v>2544363381.453496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1277453865843547</v>
+        <v>0.1209122931600133</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04225037302805189</v>
+        <v>0.04805572807421627</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1099487059.627561</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4142352954.332605</v>
+        <v>3450590894.551076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06241323931532195</v>
+        <v>0.07160500105150407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02355311127874273</v>
+        <v>0.02931929528433091</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>150</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2071176524.882665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2962256234.592656</v>
+        <v>3857818694.833849</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1710034957976268</v>
+        <v>0.1792518177699317</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03484470896782384</v>
+        <v>0.02943986136285668</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1481128154.488764</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1362878198.438555</v>
+        <v>1621032102.362074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08236605266970123</v>
+        <v>0.07059957279407514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0406529353132012</v>
+        <v>0.03865415303201396</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>681439153.6583899</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2717702016.853717</v>
+        <v>1860839111.428858</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052391259062148</v>
+        <v>0.08678041364827385</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03190872101226844</v>
+        <v>0.03589381728491573</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1358851019.827132</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3354826698.782179</v>
+        <v>5125488140.726931</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1251847623986662</v>
+        <v>0.1165385459454767</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03767860007520409</v>
+        <v>0.04651255075129725</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1677413415.916823</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3871684264.952478</v>
+        <v>3298470040.78239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1583955247113916</v>
+        <v>0.1628898864544137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0319175462945307</v>
+        <v>0.02237653881097679</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>146</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1935842099.599434</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1133157947.872825</v>
+        <v>1210476066.205449</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1464878332438856</v>
+        <v>0.1515953658825333</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0207057110857848</v>
+        <v>0.02624247291594491</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>566579035.583796</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2634501818.578121</v>
+        <v>2364312127.537766</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1367463354076114</v>
+        <v>0.1157115430430438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0230604528622857</v>
+        <v>0.02767951990911156</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1317250868.076143</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2245527865.482849</v>
+        <v>1994551567.911077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09169687818400889</v>
+        <v>0.09768192525169647</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04010820738424176</v>
+        <v>0.03433750630108458</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1122763945.243561</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2828282069.507517</v>
+        <v>2441049740.079191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1167947345347791</v>
+        <v>0.1069555215989334</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05713996173324767</v>
+        <v>0.04845462076195366</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1414141106.586635</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1188842372.960874</v>
+        <v>1176756008.771285</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1537843829013131</v>
+        <v>0.1192947308936324</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04379824358863543</v>
+        <v>0.03446129587904696</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>594421224.8599694</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2888815728.658353</v>
+        <v>2778506474.031035</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1275025706205238</v>
+        <v>0.1075580108319183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03249662219334279</v>
+        <v>0.03762439662637816</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>131</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1444407907.066318</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>922652159.3650141</v>
+        <v>1194898926.811217</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08617035321268594</v>
+        <v>0.09330119249598216</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02773108400509715</v>
+        <v>0.02496779888643579</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>461326161.4772031</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1021378811.433195</v>
+        <v>1096237440.506173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09929856768372797</v>
+        <v>0.08034588461920783</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02469416860649522</v>
+        <v>0.03490237026327849</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>510689383.101038</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4081892052.285557</v>
+        <v>4108422206.586533</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1532751723081488</v>
+        <v>0.1436158348571874</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01893917253056084</v>
+        <v>0.01918941317826544</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2040946032.245892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2380952417.692709</v>
+        <v>3757309121.767973</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421975284236647</v>
+        <v>0.1151746133924529</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03676090852886435</v>
+        <v>0.04551223605193226</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1190476166.340604</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5789476951.523187</v>
+        <v>4605870875.18457</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1428580005030517</v>
+        <v>0.1160183116310575</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0387954768023488</v>
+        <v>0.03967656233940318</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>198</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2894738368.623294</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2392427769.958446</v>
+        <v>1887512123.998887</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1038579982585077</v>
+        <v>0.1273683905528311</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03830205645851745</v>
+        <v>0.0283996165132165</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1196213967.152783</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>971952356.4072762</v>
+        <v>1013777554.241153</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1008630112421181</v>
+        <v>0.0934388104081003</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0443903488300337</v>
+        <v>0.03648840324223752</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>485976183.3691625</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1899645874.077288</v>
+        <v>1582438364.705414</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1044569018025095</v>
+        <v>0.07508828878435567</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03845313378378695</v>
+        <v>0.02965199671360956</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>949823088.1852208</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2192834229.55242</v>
+        <v>2137046617.674764</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1459190456606812</v>
+        <v>0.1425710169864408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0422763271809553</v>
+        <v>0.05050516286137345</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>137</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1096417179.163996</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1077164001.272</v>
+        <v>976556641.5007364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.114505916927406</v>
+        <v>0.1012983860247207</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02331643703985792</v>
+        <v>0.02400588604322074</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>538582025.8353496</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1341502463.083233</v>
+        <v>970590550.4759508</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07147009802200438</v>
+        <v>0.1177079065193908</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02949090364763468</v>
+        <v>0.0434576349621072</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>670751175.2625988</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3151170763.585867</v>
+        <v>2325648506.070519</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1676089251530864</v>
+        <v>0.1219330371722123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02763540947171135</v>
+        <v>0.01839185373178915</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>113</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1575585351.614671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2473416890.339606</v>
+        <v>2929962556.36191</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08065414896279614</v>
+        <v>0.08731490474232002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03440528364898829</v>
+        <v>0.04114470283355064</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1236708537.625345</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1610357082.476947</v>
+        <v>2090899801.477049</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07361972843753349</v>
+        <v>0.1132174653708528</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02589596154622659</v>
+        <v>0.02833350665084419</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>805178574.9319587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1704828140.950178</v>
+        <v>2061025509.961961</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1858135684289314</v>
+        <v>0.1812384590299811</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03231009564574652</v>
+        <v>0.02078418713204224</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>852414109.821643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573210842.27703</v>
+        <v>1390816341.255104</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1009810773111791</v>
+        <v>0.1003969733160319</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05086423679102615</v>
+        <v>0.05401688206580526</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>786605369.0152693</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2860100952.803502</v>
+        <v>1954371859.928325</v>
       </c>
       <c r="F41" t="n">
-        <v>0.164715706050431</v>
+        <v>0.1355087598119816</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03140922569840963</v>
+        <v>0.04035626863440264</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1430050466.411057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4295017061.576235</v>
+        <v>4192129272.848761</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09541016441866096</v>
+        <v>0.1261637346770393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02824578155291237</v>
+        <v>0.03091785132272129</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2147508580.372327</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2959799694.643112</v>
+        <v>2224452452.3677</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1954055026128431</v>
+        <v>0.1854242894253136</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02419441863375315</v>
+        <v>0.0230523799195556</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>155</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1479899849.768575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1833232967.692894</v>
+        <v>1725116996.272828</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08516525162585864</v>
+        <v>0.07760780685270316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02503859709779811</v>
+        <v>0.03299400010855905</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>916616556.9194289</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1665648365.464695</v>
+        <v>1903793651.727818</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1485923054819826</v>
+        <v>0.1611776918910674</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04687951769366792</v>
+        <v>0.03423705752138565</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>832824139.9051541</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3738019500.881999</v>
+        <v>4143068609.569543</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1780307186179657</v>
+        <v>0.1215993167787884</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06078879886931007</v>
+        <v>0.04244691982369933</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>159</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1869009704.981007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3599439401.38473</v>
+        <v>4857468982.191813</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1427156870590821</v>
+        <v>0.1887860032507092</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0593608849746983</v>
+        <v>0.03690582253541371</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1799719677.128676</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4393054659.67401</v>
+        <v>3003764354.645658</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1011996950589108</v>
+        <v>0.0933817091459193</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02515720862771923</v>
+        <v>0.03249242539921228</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2196527341.411043</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1805073828.394299</v>
+        <v>1927164276.484314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1696255659711877</v>
+        <v>0.1763831236165839</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03319109929108172</v>
+        <v>0.03515136314600477</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>902536898.8234417</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3755184923.513226</v>
+        <v>3682492773.42624</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1348954225342741</v>
+        <v>0.172144029511015</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05218488805231458</v>
+        <v>0.05187889524004761</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>153</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1877592467.873629</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1311526736.438909</v>
+        <v>1380888444.557526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1708748807875062</v>
+        <v>0.1654935766783242</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03562095591232555</v>
+        <v>0.03344727011661373</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>655763401.7188897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4352265974.774013</v>
+        <v>3708863482.238241</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0865679134310422</v>
+        <v>0.1347883634286794</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0457156679830993</v>
+        <v>0.04099832298859922</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>184</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2176133023.150674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2672960242.359527</v>
+        <v>2445926160.111913</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1357301316767767</v>
+        <v>0.1732538262838752</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03514638989292513</v>
+        <v>0.03232678376967106</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1336480176.213906</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4665546013.801633</v>
+        <v>3536336442.460413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1338524011908859</v>
+        <v>0.1149339861293989</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04783525869865418</v>
+        <v>0.04448952337288348</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2332773123.256984</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4152740040.374769</v>
+        <v>3632669082.400331</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1738691841418786</v>
+        <v>0.1775992119875558</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02885651501845168</v>
+        <v>0.03040892047557192</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>115</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2076370001.843352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1444575304.52895</v>
+        <v>1792883460.948828</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1496745384021554</v>
+        <v>0.1214619231441389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03620665027794127</v>
+        <v>0.04111410470171318</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>722287702.7699504</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3020017809.275906</v>
+        <v>4177741652.257807</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1656176916961385</v>
+        <v>0.1715033062602482</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01875572181370005</v>
+        <v>0.01942704802246825</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1510008910.743699</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1348599895.821977</v>
+        <v>1186668384.051395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1579119684476946</v>
+        <v>0.1855320749346175</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02965270774323892</v>
+        <v>0.03065772522366348</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>674299992.8760878</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5336809111.542362</v>
+        <v>3385809524.258726</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1255742751124211</v>
+        <v>0.1173363475366427</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03816682742935432</v>
+        <v>0.04995918649362589</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>125</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2668404467.259325</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3484013742.298063</v>
+        <v>2308436251.682117</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1564548884564664</v>
+        <v>0.15112448416457</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02798097772961255</v>
+        <v>0.02182158425231966</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>139</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1742006992.288875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2915325334.4285</v>
+        <v>3324811049.101587</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1433182506923695</v>
+        <v>0.1208613814466482</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02527290118673012</v>
+        <v>0.02186429060568119</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>154</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1457662655.686572</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1468266577.233928</v>
+        <v>1398243980.867677</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1929955701518633</v>
+        <v>0.1399466332770119</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04454668754097171</v>
+        <v>0.03353964854230584</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>734133266.9541742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5395094848.929189</v>
+        <v>3739676370.553754</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0951406693339297</v>
+        <v>0.09281951024620695</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04285856588495294</v>
+        <v>0.03946034507423497</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2697547424.619057</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3373164113.784402</v>
+        <v>4743624463.033522</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1821957774172202</v>
+        <v>0.1408226304855376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02614791428623869</v>
+        <v>0.03438954193600496</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1686582048.686323</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3628451960.075469</v>
+        <v>4262991781.410772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1171408292530631</v>
+        <v>0.141598667385079</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02803155277799217</v>
+        <v>0.03109770335779213</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>160</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1814226020.811811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5169572556.895704</v>
+        <v>4679793919.659083</v>
       </c>
       <c r="F66" t="n">
-        <v>0.111417895853257</v>
+        <v>0.1349602776568117</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03247786637187987</v>
+        <v>0.04079140505136757</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2584786314.693241</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2135215435.907853</v>
+        <v>2319741151.692327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09606421047452578</v>
+        <v>0.08227970327888713</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04659478562555909</v>
+        <v>0.04731401139102749</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>143</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1067607809.426495</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4717218554.187977</v>
+        <v>3671491382.342613</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1492731142947949</v>
+        <v>0.1506365111005823</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04502924193494837</v>
+        <v>0.05145891257532393</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2358609316.360102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2430390390.406344</v>
+        <v>1735626286.42542</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1383083493648567</v>
+        <v>0.1263952824404923</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05359023875074075</v>
+        <v>0.0516526775674713</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1215195255.804713</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3323385111.727312</v>
+        <v>2987642196.195216</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0835117324509124</v>
+        <v>0.07835826681412295</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04923921270230502</v>
+        <v>0.03080287878106077</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>128</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1661692553.991742</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4294056330.709278</v>
+        <v>4734992534.198625</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1434123398129602</v>
+        <v>0.1222670277648381</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03389586726386293</v>
+        <v>0.02624919600451657</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>163</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2147028218.362348</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1439251755.604329</v>
+        <v>1969571588.801723</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1061584731997616</v>
+        <v>0.06813951282541407</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04856168598752678</v>
+        <v>0.03794128328602155</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>719625914.599879</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3114436026.81315</v>
+        <v>2639399459.822757</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09183987800810681</v>
+        <v>0.08602003144845596</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03172109056833645</v>
+        <v>0.04627250770598802</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>169</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1557217998.92971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3305003271.720958</v>
+        <v>3479904314.385688</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1236168779424451</v>
+        <v>0.1761228052488249</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02619525124564835</v>
+        <v>0.02609802626810855</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>153</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1652501674.906317</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1946579749.780737</v>
+        <v>2394820162.477548</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1052721124661376</v>
+        <v>0.1179052548670464</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0338323310072972</v>
+        <v>0.0277754718574291</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>973289844.1017889</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5195465952.498561</v>
+        <v>4716464477.334336</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1119564080150491</v>
+        <v>0.08927524365531755</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03335145847755357</v>
+        <v>0.02492580989253538</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2597733011.133839</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2077730771.520781</v>
+        <v>2106442777.810372</v>
       </c>
       <c r="F77" t="n">
-        <v>0.122289046739961</v>
+        <v>0.1571388847500673</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02815574869718097</v>
+        <v>0.0289259285016021</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1038865458.761831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4548198441.478378</v>
+        <v>3238467378.680622</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0911621313451228</v>
+        <v>0.1297919706170877</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0504811950621172</v>
+        <v>0.03761381690931513</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>155</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2274099147.237288</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1742184076.532248</v>
+        <v>1326459414.208805</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1296896652047619</v>
+        <v>0.1572918643243512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03534598066317439</v>
+        <v>0.02973692366008484</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>871092114.8663106</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4522923167.794559</v>
+        <v>5393184358.885028</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08771662731911796</v>
+        <v>0.08821055853350146</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392708986257576</v>
+        <v>0.03099809434414673</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2261461609.379538</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4969772044.469068</v>
+        <v>4516855251.438034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.114257571820856</v>
+        <v>0.1234090758640671</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03204605296763976</v>
+        <v>0.02290005634293238</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2484886021.467453</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5265260858.262772</v>
+        <v>4139703562.443357</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185857686328938</v>
+        <v>0.2090441942665306</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01821892654959532</v>
+        <v>0.02258512796376584</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2632630398.281131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082151592.844771</v>
+        <v>1961180874.604958</v>
       </c>
       <c r="F83" t="n">
-        <v>0.13035590180488</v>
+        <v>0.1491469956552664</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03926730006564982</v>
+        <v>0.02825719164767882</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1041075791.995621</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1970969161.616067</v>
+        <v>2104405931.865072</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07318044865184443</v>
+        <v>0.1114466583123369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04308020997099307</v>
+        <v>0.0439881727922026</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>985484590.1331104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2409863398.156523</v>
+        <v>2663039130.37694</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1466554287962134</v>
+        <v>0.139953765297707</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03805973999756661</v>
+        <v>0.03693878570219734</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>168</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1204931694.097901</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2548944474.20835</v>
+        <v>2698803320.901071</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1667376508404732</v>
+        <v>0.1652934829004873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02316093708745137</v>
+        <v>0.02330203242605491</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1274472341.089803</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1244671263.411077</v>
+        <v>1359167734.502792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.180137342952866</v>
+        <v>0.1254164118142783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04068413209281623</v>
+        <v>0.03484291000386725</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>622335698.7497331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2804534203.54098</v>
+        <v>3275413589.746689</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1147400964625108</v>
+        <v>0.1160440820501319</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02757569665498944</v>
+        <v>0.02964032237934099</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>177</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1402267112.917465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3502787603.860984</v>
+        <v>2713191845.284044</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1307844788124983</v>
+        <v>0.1161373099502977</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03772552170076999</v>
+        <v>0.03819788345084357</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>151</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1751393803.20306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1893381927.490107</v>
+        <v>1751175699.453416</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1301764652033347</v>
+        <v>0.1071657010355068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04668341557702324</v>
+        <v>0.04032649633080964</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>946691014.4775971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1491860691.740112</v>
+        <v>1946120981.479249</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1559113992786176</v>
+        <v>0.1450296644695292</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03997625107893964</v>
+        <v>0.04059519887536765</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>745930385.8730042</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1803686476.164275</v>
+        <v>2480827273.024128</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08836629354433963</v>
+        <v>0.0859345852982927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04294899474748159</v>
+        <v>0.03420379652366853</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>901843169.4945071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3583746919.28094</v>
+        <v>3706326958.713665</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1166086697521364</v>
+        <v>0.1192221069186127</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03924199674988731</v>
+        <v>0.04414596170814833</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1791873487.193838</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2530454241.07137</v>
+        <v>1857365944.626434</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1603166281601025</v>
+        <v>0.1152984788878914</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03053156172242368</v>
+        <v>0.03330609700836401</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1265227187.933994</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3283260967.01818</v>
+        <v>2662773445.454685</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1009322763633292</v>
+        <v>0.09245250563711392</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04709926375474975</v>
+        <v>0.04988199407211348</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1641630462.664856</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2219541263.558815</v>
+        <v>1892540990.387243</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09578264354175739</v>
+        <v>0.1152645577935318</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04280125739921769</v>
+        <v>0.04740894347091181</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1109770595.336515</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4984093105.215774</v>
+        <v>3902439236.321087</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1529439221446767</v>
+        <v>0.1456008023326297</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02515846637260449</v>
+        <v>0.02866918586651086</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>144</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2492046688.140999</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3581575219.551236</v>
+        <v>3318795582.224239</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1066626058625496</v>
+        <v>0.1239415402648214</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02283727064985197</v>
+        <v>0.02525804760793635</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1790787633.919178</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2835870554.134007</v>
+        <v>3066140940.107337</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1204804339556778</v>
+        <v>0.115967097729756</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02526517588318046</v>
+        <v>0.02990451306929396</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>140</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1417935251.1163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4019641871.221456</v>
+        <v>3142461311.733257</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1441716363240664</v>
+        <v>0.1687357769605533</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02466960209538267</v>
+        <v>0.01855762980556462</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2009821007.871448</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3405172407.911889</v>
+        <v>2635221913.206971</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2064750701441384</v>
+        <v>0.1797807200011386</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0387317602049405</v>
+        <v>0.03835819980946827</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>183</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1702586346.581376</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_447.xlsx
+++ b/output/fit_clients/fit_round_447.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1602262591.520109</v>
+        <v>2440250531.911286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08158479205808124</v>
+        <v>0.07259260641044064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04008257524992093</v>
+        <v>0.03486911495410415</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1824509371.268196</v>
+        <v>2059601028.346788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146755417595067</v>
+        <v>0.1129204261961531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04711058479972923</v>
+        <v>0.03785945780634099</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3590377619.039646</v>
+        <v>4143503431.202381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.145148136345021</v>
+        <v>0.1488073936451626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03747837653149941</v>
+        <v>0.03358700263298921</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3451767901.070245</v>
+        <v>3844649847.429892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1068668768772808</v>
+        <v>0.08619277729195894</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03894873839114035</v>
+        <v>0.04378941024907056</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2333663338.592277</v>
+        <v>1757348440.128919</v>
       </c>
       <c r="F6" t="n">
-        <v>0.113145907167638</v>
+        <v>0.1066145390178976</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03733159330852116</v>
+        <v>0.04990076623618981</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2695695958.651226</v>
+        <v>2155111099.674615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07012286128748238</v>
+        <v>0.06717868707695977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03472133610165376</v>
+        <v>0.03777462730231225</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3305484287.990473</v>
+        <v>3666783711.888034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2168724788423388</v>
+        <v>0.1423444153356493</v>
       </c>
       <c r="G8" t="n">
-        <v>0.029202399604114</v>
+        <v>0.02528811535090954</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1852129667.500283</v>
+        <v>1929228614.454591</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1581645596936379</v>
+        <v>0.131611769455012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02690583625914057</v>
+        <v>0.02577869605684326</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3926270631.077089</v>
+        <v>3617624185.112806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1954072207926443</v>
+        <v>0.1373713174506933</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04890064032822437</v>
+        <v>0.04156696544238606</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3895156331.169695</v>
+        <v>3015932260.655316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1658215872451584</v>
+        <v>0.1242433933930649</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04693915437852696</v>
+        <v>0.0428013481072119</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2544363381.453496</v>
+        <v>2750474411.492323</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209122931600133</v>
+        <v>0.1459832799744321</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04805572807421627</v>
+        <v>0.03588332304901511</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3450590894.551076</v>
+        <v>3677965330.368461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07160500105150407</v>
+        <v>0.06651650279023763</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02931929528433091</v>
+        <v>0.02608122572718146</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3857818694.833849</v>
+        <v>2625403129.554855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1792518177699317</v>
+        <v>0.1811318472949504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02943986136285668</v>
+        <v>0.0294754376554504</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1621032102.362074</v>
+        <v>1180198044.262214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07059957279407514</v>
+        <v>0.07262955460469031</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03865415303201396</v>
+        <v>0.04807525231621087</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1860839111.428858</v>
+        <v>1857006071.649506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08678041364827385</v>
+        <v>0.08366693931801644</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03589381728491573</v>
+        <v>0.04511759585879037</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5125488140.726931</v>
+        <v>4896716131.905728</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1165385459454767</v>
+        <v>0.1637126963605316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04651255075129725</v>
+        <v>0.04027810071480974</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3298470040.78239</v>
+        <v>2546235633.657836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1628898864544137</v>
+        <v>0.1737401946010787</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02237653881097679</v>
+        <v>0.0243778627568987</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1210476066.205449</v>
+        <v>1262711503.012412</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1515953658825333</v>
+        <v>0.1838985026809809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02624247291594491</v>
+        <v>0.02492704739960491</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2364312127.537766</v>
+        <v>2769071876.463839</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1157115430430438</v>
+        <v>0.1393560051538258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02767951990911156</v>
+        <v>0.02115675935800828</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1994551567.911077</v>
+        <v>2588398333.729065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09768192525169647</v>
+        <v>0.1018318392893016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433750630108458</v>
+        <v>0.03891864464938777</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2441049740.079191</v>
+        <v>3740654398.275285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1069555215989334</v>
+        <v>0.1009019569246557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04845462076195366</v>
+        <v>0.04492827746695007</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1176756008.771285</v>
+        <v>1085341043.313308</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1192947308936324</v>
+        <v>0.1157747204251678</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03446129587904696</v>
+        <v>0.03958707157197225</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2778506474.031035</v>
+        <v>4014791478.527932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1075580108319183</v>
+        <v>0.1004983135280802</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03762439662637816</v>
+        <v>0.0358123934846423</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1194898926.811217</v>
+        <v>1331823283.429705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09330119249598216</v>
+        <v>0.07964694643717367</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02496779888643579</v>
+        <v>0.0241621274686984</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1096237440.506173</v>
+        <v>1296363084.820966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08034588461920783</v>
+        <v>0.1052944786666059</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03490237026327849</v>
+        <v>0.03006028994340971</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4108422206.586533</v>
+        <v>4536000257.740568</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1436158348571874</v>
+        <v>0.1270185865110895</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01918941317826544</v>
+        <v>0.02631150947651844</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3757309121.767973</v>
+        <v>2566713511.118194</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1151746133924529</v>
+        <v>0.1196295361257604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04551223605193226</v>
+        <v>0.03528716148417112</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4605870875.18457</v>
+        <v>3718901137.189336</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1160183116310575</v>
+        <v>0.138446932067056</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03967656233940318</v>
+        <v>0.02862846923807545</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1887512123.998887</v>
+        <v>1676190065.24877</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1273683905528311</v>
+        <v>0.1046839837865075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0283996165132165</v>
+        <v>0.02913484153990028</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013777554.241153</v>
+        <v>1424567756.150491</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0934388104081003</v>
+        <v>0.1099002169185666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03648840324223752</v>
+        <v>0.04606251234935219</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1582438364.705414</v>
+        <v>1384637443.677428</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07508828878435567</v>
+        <v>0.08708269757848021</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02965199671360956</v>
+        <v>0.03387776092399233</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2137046617.674764</v>
+        <v>2333474511.011965</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1425710169864408</v>
+        <v>0.1901767598666829</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05050516286137345</v>
+        <v>0.05990413477192668</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>976556641.5007364</v>
+        <v>1538557229.154307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1012983860247207</v>
+        <v>0.09202867327056527</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02400588604322074</v>
+        <v>0.02159045955482477</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>970590550.4759508</v>
+        <v>1188342636.802665</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1177079065193908</v>
+        <v>0.1086203808213851</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0434576349621072</v>
+        <v>0.04458778847500119</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2325648506.070519</v>
+        <v>2804803830.951509</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1219330371722123</v>
+        <v>0.1526354789765189</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01839185373178915</v>
+        <v>0.01757170792483103</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929962556.36191</v>
+        <v>1959242230.745256</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08731490474232002</v>
+        <v>0.1107239856549498</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04114470283355064</v>
+        <v>0.03338254259670725</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2090899801.477049</v>
+        <v>1703961514.211158</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1132174653708528</v>
+        <v>0.1054341037000622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02833350665084419</v>
+        <v>0.03107291872374652</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2061025509.961961</v>
+        <v>2055864414.873998</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1812384590299811</v>
+        <v>0.1422927418042152</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02078418713204224</v>
+        <v>0.02352729565102062</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390816341.255104</v>
+        <v>1541686884.845962</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1003969733160319</v>
+        <v>0.1601306685057079</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05401688206580526</v>
+        <v>0.03739848342222536</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1954371859.928325</v>
+        <v>2850428713.822376</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1355087598119816</v>
+        <v>0.1419933375698819</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04035626863440264</v>
+        <v>0.04289897443144382</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4192129272.848761</v>
+        <v>3920471073.823421</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1261637346770393</v>
+        <v>0.09361570659654954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03091785132272129</v>
+        <v>0.04295766044607471</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2224452452.3677</v>
+        <v>2241523797.393836</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1854242894253136</v>
+        <v>0.1896885377195128</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0230523799195556</v>
+        <v>0.01778727441411965</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1725116996.272828</v>
+        <v>2137534261.827023</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07760780685270316</v>
+        <v>0.07299937052045233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03299400010855905</v>
+        <v>0.03290397570074541</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1903793651.727818</v>
+        <v>1733582376.262771</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1611776918910674</v>
+        <v>0.1663892996813149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03423705752138565</v>
+        <v>0.04027232454280619</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4143068609.569543</v>
+        <v>5433721563.283208</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1215993167787884</v>
+        <v>0.1751698189409638</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04244691982369933</v>
+        <v>0.03984460104259711</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4857468982.191813</v>
+        <v>3715732787.691912</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1887860032507092</v>
+        <v>0.1648151768405782</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03690582253541371</v>
+        <v>0.05058305505172107</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3003764354.645658</v>
+        <v>4154433548.009337</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0933817091459193</v>
+        <v>0.08579541019094752</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03249242539921228</v>
+        <v>0.02954368081583834</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1927164276.484314</v>
+        <v>1734703849.912546</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1763831236165839</v>
+        <v>0.1798069794891834</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03515136314600477</v>
+        <v>0.0366374901959181</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3682492773.42624</v>
+        <v>3392314556.003017</v>
       </c>
       <c r="F50" t="n">
-        <v>0.172144029511015</v>
+        <v>0.1424538166669737</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05187889524004761</v>
+        <v>0.03750923878536519</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1380888444.557526</v>
+        <v>1082807502.384526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1654935766783242</v>
+        <v>0.1303707638937074</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03344727011661373</v>
+        <v>0.03728767293403913</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3708863482.238241</v>
+        <v>4702678043.049694</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1347883634286794</v>
+        <v>0.1177786640528084</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04099832298859922</v>
+        <v>0.04462027076493473</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2445926160.111913</v>
+        <v>2556416945.99508</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1732538262838752</v>
+        <v>0.144209183689145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03232678376967106</v>
+        <v>0.02805378998641303</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3536336442.460413</v>
+        <v>3459646889.45774</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1149339861293989</v>
+        <v>0.1265259067582671</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04448952337288348</v>
+        <v>0.03356714394786905</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3632669082.400331</v>
+        <v>3123282643.295829</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1775992119875558</v>
+        <v>0.1976588719212827</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03040892047557192</v>
+        <v>0.02875662311615135</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1792883460.948828</v>
+        <v>1614406649.695414</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1214619231441389</v>
+        <v>0.1224762870743134</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04111410470171318</v>
+        <v>0.03774643703549688</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4177741652.257807</v>
+        <v>3574664218.104339</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1715033062602482</v>
+        <v>0.1771406552550452</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01942704802246825</v>
+        <v>0.01835507883529173</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1186668384.051395</v>
+        <v>1688421368.918846</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1855320749346175</v>
+        <v>0.139157869445524</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03065772522366348</v>
+        <v>0.02405809846339242</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3385809524.258726</v>
+        <v>4490122604.312879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1173363475366427</v>
+        <v>0.1085662310675253</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04995918649362589</v>
+        <v>0.04699238909451159</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2308436251.682117</v>
+        <v>3265639210.710867</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15112448416457</v>
+        <v>0.1597274203726635</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02182158425231966</v>
+        <v>0.02039372341603959</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3324811049.101587</v>
+        <v>2914582775.047093</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1208613814466482</v>
+        <v>0.1776563631454737</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02186429060568119</v>
+        <v>0.0222476968170588</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1398243980.867677</v>
+        <v>1794623982.96886</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1399466332770119</v>
+        <v>0.192597854596942</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03353964854230584</v>
+        <v>0.03878014608115847</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3739676370.553754</v>
+        <v>3470619324.017136</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09281951024620695</v>
+        <v>0.1007477456718002</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03946034507423497</v>
+        <v>0.03304991436008829</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4743624463.033522</v>
+        <v>5314514093.917873</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1408226304855376</v>
+        <v>0.1764913007814373</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03438954193600496</v>
+        <v>0.03241529970104486</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4262991781.410772</v>
+        <v>4299066694.480918</v>
       </c>
       <c r="F65" t="n">
-        <v>0.141598667385079</v>
+        <v>0.1676312921902022</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03109770335779213</v>
+        <v>0.02601417865673897</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4679793919.659083</v>
+        <v>5558450986.316275</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1349602776568117</v>
+        <v>0.1060504121431007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04079140505136757</v>
+        <v>0.03865694688045437</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2319741151.692327</v>
+        <v>2769532504.836764</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08227970327888713</v>
+        <v>0.08549596201444552</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04731401139102749</v>
+        <v>0.04160367026432013</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3671491382.342613</v>
+        <v>3777622386.072128</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1506365111005823</v>
+        <v>0.1458110159956019</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05145891257532393</v>
+        <v>0.04728425340513272</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1735626286.42542</v>
+        <v>1790787293.441169</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263952824404923</v>
+        <v>0.1556244792489532</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0516526775674713</v>
+        <v>0.04055813717837949</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2987642196.195216</v>
+        <v>2650827043.303084</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07835826681412295</v>
+        <v>0.09790162406119431</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03080287878106077</v>
+        <v>0.04364353300800852</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4734992534.198625</v>
+        <v>5568185891.774083</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1222670277648381</v>
+        <v>0.155597432752434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02624919600451657</v>
+        <v>0.02367415837487279</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1969571588.801723</v>
+        <v>1556254683.12225</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06813951282541407</v>
+        <v>0.1032137387379447</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03794128328602155</v>
+        <v>0.04016784060384049</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2639399459.822757</v>
+        <v>3103551103.77299</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08602003144845596</v>
+        <v>0.09050311122913032</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04627250770598802</v>
+        <v>0.04758119555770516</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3479904314.385688</v>
+        <v>3605665644.031834</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1761228052488249</v>
+        <v>0.171570695637331</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02609802626810855</v>
+        <v>0.02909884644816545</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2394820162.477548</v>
+        <v>1803654425.93074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1179052548670464</v>
+        <v>0.1363986040881835</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0277754718574291</v>
+        <v>0.02936540726654059</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4716464477.334336</v>
+        <v>3621508941.166568</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08927524365531755</v>
+        <v>0.08659841015609605</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02492580989253538</v>
+        <v>0.03112895037780162</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2106442777.810372</v>
+        <v>1942309068.354314</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1571388847500673</v>
+        <v>0.160042092142872</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0289259285016021</v>
+        <v>0.02140908468224461</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3238467378.680622</v>
+        <v>4104687136.168636</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297919706170877</v>
+        <v>0.1114511416037441</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03761381690931513</v>
+        <v>0.05534011571098122</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1326459414.208805</v>
+        <v>1792381664.100591</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1572918643243512</v>
+        <v>0.1139188145486688</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02973692366008484</v>
+        <v>0.03105626555160011</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5393184358.885028</v>
+        <v>5593547113.077552</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08821055853350146</v>
+        <v>0.1052133994704908</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03099809434414673</v>
+        <v>0.02433395295569712</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4516855251.438034</v>
+        <v>4845896737.276466</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1234090758640671</v>
+        <v>0.1040367149124119</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02290005634293238</v>
+        <v>0.03088019974837344</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4139703562.443357</v>
+        <v>4807841178.503135</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2090441942665306</v>
+        <v>0.1913658963741107</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02258512796376584</v>
+        <v>0.02899461168726604</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1961180874.604958</v>
+        <v>2362637392.424534</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1491469956552664</v>
+        <v>0.1096142102150835</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02825719164767882</v>
+        <v>0.03398656031966624</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2104405931.865072</v>
+        <v>1949651599.75987</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1114466583123369</v>
+        <v>0.1101779484016705</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0439881727922026</v>
+        <v>0.04930272993769666</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2663039130.37694</v>
+        <v>2787119000.496962</v>
       </c>
       <c r="F85" t="n">
-        <v>0.139953765297707</v>
+        <v>0.1775091139389462</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03693878570219734</v>
+        <v>0.03788890764664938</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2698803320.901071</v>
+        <v>2495282238.411663</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1652934829004873</v>
+        <v>0.1349526970834642</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02330203242605491</v>
+        <v>0.0185132820954506</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1359167734.502792</v>
+        <v>1155705782.591478</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1254164118142783</v>
+        <v>0.1755176309923435</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03484291000386725</v>
+        <v>0.02938085983213488</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3275413589.746689</v>
+        <v>3139318025.314315</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1160440820501319</v>
+        <v>0.172875832864306</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02964032237934099</v>
+        <v>0.04001234479278237</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2713191845.284044</v>
+        <v>3334639838.927361</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1161373099502977</v>
+        <v>0.1184536010230754</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03819788345084357</v>
+        <v>0.03972775248339568</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1751175699.453416</v>
+        <v>1739734114.609968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1071657010355068</v>
+        <v>0.09413884783096096</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04032649633080964</v>
+        <v>0.03956227825186899</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1946120981.479249</v>
+        <v>1775692546.981757</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1450296644695292</v>
+        <v>0.1567204365740832</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04059519887536765</v>
+        <v>0.03990650065709168</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2480827273.024128</v>
+        <v>2696990327.644948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0859345852982927</v>
+        <v>0.07545733693214078</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03420379652366853</v>
+        <v>0.03417628045730624</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3706326958.713665</v>
+        <v>3902628015.996696</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1192221069186127</v>
+        <v>0.1227210506701868</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04414596170814833</v>
+        <v>0.05220783983299806</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1857365944.626434</v>
+        <v>2353513114.787638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1152984788878914</v>
+        <v>0.1142161409842015</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03330609700836401</v>
+        <v>0.04037781297733819</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2662773445.454685</v>
+        <v>3195435327.959995</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09245250563711392</v>
+        <v>0.1293658564541327</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04988199407211348</v>
+        <v>0.04769810229437729</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1892540990.387243</v>
+        <v>1912181751.858162</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1152645577935318</v>
+        <v>0.1359995573442923</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04740894347091181</v>
+        <v>0.03331625654434801</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3902439236.321087</v>
+        <v>4655298034.398325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1456008023326297</v>
+        <v>0.1173001113213612</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02866918586651086</v>
+        <v>0.02792016750555369</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3318795582.224239</v>
+        <v>3685236612.924659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1239415402648214</v>
+        <v>0.09466576859081027</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02525804760793635</v>
+        <v>0.03277267136324386</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3066140940.107337</v>
+        <v>2072302937.292937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.115967097729756</v>
+        <v>0.1079724378836886</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02990451306929396</v>
+        <v>0.03474711313718738</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3142461311.733257</v>
+        <v>4389693718.465405</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1687357769605533</v>
+        <v>0.1563059154253831</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01855762980556462</v>
+        <v>0.0230796594304054</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2635221913.206971</v>
+        <v>3298550170.249209</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1797807200011386</v>
+        <v>0.1345066159599121</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03835819980946827</v>
+        <v>0.0578068172882879</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_447.xlsx
+++ b/output/fit_clients/fit_round_447.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2440250531.911286</v>
+        <v>2203411834.906793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07259260641044064</v>
+        <v>0.1078270294850294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03486911495410415</v>
+        <v>0.04134240903100744</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2059601028.346788</v>
+        <v>1592453952.28609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1129204261961531</v>
+        <v>0.1306895423437388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03785945780634099</v>
+        <v>0.04583424850286854</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4143503431.202381</v>
+        <v>3622146536.046119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1488073936451626</v>
+        <v>0.1650476904242971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03358700263298921</v>
+        <v>0.02867210626846907</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>226</v>
+      </c>
+      <c r="J4" t="n">
+        <v>447</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3844649847.429892</v>
+        <v>3893597115.296627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08619277729195894</v>
+        <v>0.08722037071728626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04378941024907056</v>
+        <v>0.04638647865053001</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>188</v>
+      </c>
+      <c r="J5" t="n">
+        <v>446</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.61882766284488</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1757348440.128919</v>
+        <v>1957667413.249206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1066145390178976</v>
+        <v>0.1368008188086406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04990076623618981</v>
+        <v>0.0504210523092641</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2155111099.674615</v>
+        <v>1931906960.141752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06717868707695977</v>
+        <v>0.1002312086874929</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03777462730231225</v>
+        <v>0.03591829980559388</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3666783711.888034</v>
+        <v>3975705602.29643</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1423444153356493</v>
+        <v>0.1704775197962137</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02528811535090954</v>
+        <v>0.02247049084919683</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>122</v>
+      </c>
+      <c r="J8" t="n">
+        <v>447</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1929228614.454591</v>
+        <v>1763859171.939651</v>
       </c>
       <c r="F9" t="n">
-        <v>0.131611769455012</v>
+        <v>0.1255102550798444</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02577869605684326</v>
+        <v>0.02288213340109049</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3617624185.112806</v>
+        <v>5883774877.276493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1373713174506933</v>
+        <v>0.1580676689533054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04156696544238606</v>
+        <v>0.04993342210063303</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>348</v>
+      </c>
+      <c r="J10" t="n">
+        <v>447</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3015932260.655316</v>
+        <v>3522366051.961398</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1242433933930649</v>
+        <v>0.1161599985317114</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0428013481072119</v>
+        <v>0.03258985520008043</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>185</v>
+      </c>
+      <c r="J11" t="n">
+        <v>445</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2750474411.492323</v>
+        <v>2699848153.648452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1459832799744321</v>
+        <v>0.1347559423656271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03588332304901511</v>
+        <v>0.05048129648327409</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3677965330.368461</v>
+        <v>4174938502.805517</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06651650279023763</v>
+        <v>0.07515327149790736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02608122572718146</v>
+        <v>0.02887214512137961</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>232</v>
+      </c>
+      <c r="J13" t="n">
+        <v>446</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.38367317382465</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2625403129.554855</v>
+        <v>3311462989.887419</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1811318472949504</v>
+        <v>0.1167153018559838</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0294754376554504</v>
+        <v>0.04206494692557752</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180198044.262214</v>
+        <v>1640521139.897895</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07262955460469031</v>
+        <v>0.1000371692116869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04807525231621087</v>
+        <v>0.04018162497988539</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1857006071.649506</v>
+        <v>2132903335.299477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08366693931801644</v>
+        <v>0.1065770593196084</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04511759585879037</v>
+        <v>0.05096553532175056</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4896716131.905728</v>
+        <v>5130009575.85743</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637126963605316</v>
+        <v>0.1711900682181884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04027810071480974</v>
+        <v>0.04648181971359377</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>217</v>
+      </c>
+      <c r="J17" t="n">
+        <v>447</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2546235633.657836</v>
+        <v>3653235051.538643</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1737401946010787</v>
+        <v>0.1340789031741904</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0243778627568987</v>
+        <v>0.02747507830084195</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>117</v>
+      </c>
+      <c r="J18" t="n">
+        <v>447</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38.99855968988098</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262711503.012412</v>
+        <v>1331924598.916286</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1838985026809809</v>
+        <v>0.1597451848702506</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02492704739960491</v>
+        <v>0.02198928433475312</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2769071876.463839</v>
+        <v>2252998555.135745</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1393560051538258</v>
+        <v>0.1599091214006796</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02115675935800828</v>
+        <v>0.02538038880828013</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2588398333.729065</v>
+        <v>1687078843.705734</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018318392893016</v>
+        <v>0.06990509432393775</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03891864464938777</v>
+        <v>0.04488402484799293</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3740654398.275285</v>
+        <v>3373841784.601881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1009019569246557</v>
+        <v>0.1376579108571691</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04492827746695007</v>
+        <v>0.05154912908812312</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1085341043.313308</v>
+        <v>1277619717.977622</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1157747204251678</v>
+        <v>0.1813065422790366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03958707157197225</v>
+        <v>0.03822514216407051</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4014791478.527932</v>
+        <v>3229332827.211436</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1004983135280802</v>
+        <v>0.1388233947245227</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0358123934846423</v>
+        <v>0.03697666671208767</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1331823283.429705</v>
+        <v>996122786.5174236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07964694643717367</v>
+        <v>0.08026783322486908</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0241621274686984</v>
+        <v>0.0234295529423523</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1296363084.820966</v>
+        <v>1219298028.963147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1052944786666059</v>
+        <v>0.1224453465715697</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03006028994340971</v>
+        <v>0.03042509791816006</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4536000257.740568</v>
+        <v>3180939486.771739</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1270185865110895</v>
+        <v>0.1396954300201069</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02631150947651844</v>
+        <v>0.01668697734778429</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>194</v>
+      </c>
+      <c r="J27" t="n">
+        <v>445</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2566713511.118194</v>
+        <v>3458085296.796221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1196295361257604</v>
+        <v>0.1229145045711521</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03528716148417112</v>
+        <v>0.03125334453321581</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3718901137.189336</v>
+        <v>4388017213.288518</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138446932067056</v>
+        <v>0.11495432518388</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02862846923807545</v>
+        <v>0.04099466323445944</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>364</v>
+      </c>
+      <c r="J29" t="n">
+        <v>447</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1676190065.24877</v>
+        <v>1849581600.152043</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1046839837865075</v>
+        <v>0.08974578848186854</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02913484153990028</v>
+        <v>0.03383491600061373</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424567756.150491</v>
+        <v>1274337001.244688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1099002169185666</v>
+        <v>0.08155208508931351</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04606251234935219</v>
+        <v>0.03828137764214568</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1384637443.677428</v>
+        <v>1345869979.039552</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08708269757848021</v>
+        <v>0.0801401050208161</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03387776092399233</v>
+        <v>0.02553169062890744</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2333474511.011965</v>
+        <v>2865926973.217167</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1901767598666829</v>
+        <v>0.1877092164921211</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05990413477192668</v>
+        <v>0.0578760325909658</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1538557229.154307</v>
+        <v>1070488543.442287</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09202867327056527</v>
+        <v>0.08711228378658741</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02159045955482477</v>
+        <v>0.02760913768231368</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1188342636.802665</v>
+        <v>853869676.6928791</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1086203808213851</v>
+        <v>0.07989529931187128</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04458778847500119</v>
+        <v>0.02748502105147966</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2804803830.951509</v>
+        <v>2483571382.661153</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1526354789765189</v>
+        <v>0.1596698063517448</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01757170792483103</v>
+        <v>0.02044586896972025</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1959242230.745256</v>
+        <v>2666929497.489101</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1107239856549498</v>
+        <v>0.0722032716141742</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03338254259670725</v>
+        <v>0.02645257826940467</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1767,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1703961514.211158</v>
+        <v>1645622577.479131</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054341037000622</v>
+        <v>0.1073728108702979</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03107291872374652</v>
+        <v>0.03563196095382387</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2055864414.873998</v>
+        <v>1400898696.644541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1422927418042152</v>
+        <v>0.1804013001553297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02352729565102062</v>
+        <v>0.0308228634878765</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1541686884.845962</v>
+        <v>1813470166.236665</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1601306685057079</v>
+        <v>0.1260282704644149</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03739848342222536</v>
+        <v>0.04764612336103791</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2850428713.822376</v>
+        <v>1845151129.602806</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1419933375698819</v>
+        <v>0.1556720039712453</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04289897443144382</v>
+        <v>0.04261654887075703</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3920471073.823421</v>
+        <v>4197838614.310418</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09361570659654954</v>
+        <v>0.0867949279449986</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04295766044607471</v>
+        <v>0.04095696850397471</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>195</v>
+      </c>
+      <c r="J42" t="n">
+        <v>447</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40.52753714776251</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2241523797.393836</v>
+        <v>2192917689.783959</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1896885377195128</v>
+        <v>0.1614317130982272</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01778727441411965</v>
+        <v>0.02000091936921343</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2137534261.827023</v>
+        <v>2299241683.221963</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07299937052045233</v>
+        <v>0.1020070431523167</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03290397570074541</v>
+        <v>0.03671825961463843</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1733582376.262771</v>
+        <v>2396000447.983167</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1663892996813149</v>
+        <v>0.1496952892405451</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04027232454280619</v>
+        <v>0.04026291498075469</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5433721563.283208</v>
+        <v>4549074296.959492</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1751698189409638</v>
+        <v>0.1329338702597725</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03984460104259711</v>
+        <v>0.04617687308976443</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>265</v>
+      </c>
+      <c r="J46" t="n">
+        <v>447</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3715732787.691912</v>
+        <v>4850039572.624423</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1648151768405782</v>
+        <v>0.1557628829823366</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05058305505172107</v>
+        <v>0.05477249738565233</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>201</v>
+      </c>
+      <c r="J47" t="n">
+        <v>447</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4154433548.009337</v>
+        <v>4430160546.918682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08579541019094752</v>
+        <v>0.08840469572739337</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02954368081583834</v>
+        <v>0.03349266132577754</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>226</v>
+      </c>
+      <c r="J48" t="n">
+        <v>446</v>
+      </c>
+      <c r="K48" t="n">
+        <v>36.01185312817361</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1734703849.912546</v>
+        <v>1936929248.741056</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1798069794891834</v>
+        <v>0.144002895406423</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0366374901959181</v>
+        <v>0.04336208866997249</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2191,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3392314556.003017</v>
+        <v>2947263022.948939</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1424538166669737</v>
+        <v>0.1141073932749494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03750923878536519</v>
+        <v>0.04750669241879089</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>160</v>
+      </c>
+      <c r="J50" t="n">
+        <v>445</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1082807502.384526</v>
+        <v>1165937563.758061</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1303707638937074</v>
+        <v>0.1777750343189476</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03728767293403913</v>
+        <v>0.034884955203126</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4702678043.049694</v>
+        <v>5059374722.0476</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1177786640528084</v>
+        <v>0.1090428399012932</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04462027076493473</v>
+        <v>0.04639457803799143</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>255</v>
+      </c>
+      <c r="J52" t="n">
+        <v>446</v>
+      </c>
+      <c r="K52" t="n">
+        <v>32.73591383737554</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2556416945.99508</v>
+        <v>2825741943.975223</v>
       </c>
       <c r="F53" t="n">
-        <v>0.144209183689145</v>
+        <v>0.1340383117690446</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02805378998641303</v>
+        <v>0.02416910928706614</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="n">
+        <v>28.8837425574039</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3459646889.45774</v>
+        <v>3580972750.566338</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1265259067582671</v>
+        <v>0.1573582108645153</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03356714394786905</v>
+        <v>0.05202919446921522</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>236</v>
+      </c>
+      <c r="J54" t="n">
+        <v>446</v>
+      </c>
+      <c r="K54" t="n">
+        <v>28.72345559285846</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3123282643.295829</v>
+        <v>3997773695.689342</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1976588719212827</v>
+        <v>0.2024826627027825</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02875662311615135</v>
+        <v>0.02743261241799587</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>222</v>
+      </c>
+      <c r="J55" t="n">
+        <v>446</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.21475376007905</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1614406649.695414</v>
+        <v>1714687045.755762</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1224762870743134</v>
+        <v>0.1560290175309768</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03774643703549688</v>
+        <v>0.04168378977239105</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3574664218.104339</v>
+        <v>4359087254.224267</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1771406552550452</v>
+        <v>0.1263591776159287</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01835507883529173</v>
+        <v>0.02324840299716349</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>194</v>
+      </c>
+      <c r="J57" t="n">
+        <v>447</v>
+      </c>
+      <c r="K57" t="n">
+        <v>37.80198923208987</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1688421368.918846</v>
+        <v>1792695206.790813</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139157869445524</v>
+        <v>0.1355343887648091</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02405809846339242</v>
+        <v>0.03288376857071153</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4490122604.312879</v>
+        <v>4851288975.163737</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1085662310675253</v>
+        <v>0.1251212881403662</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04699238909451159</v>
+        <v>0.0480985158168981</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>218</v>
+      </c>
+      <c r="J59" t="n">
+        <v>447</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3265639210.710867</v>
+        <v>2925881771.461625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1597274203726635</v>
+        <v>0.1764770669145652</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02039372341603959</v>
+        <v>0.0205087970258489</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2914582775.047093</v>
+        <v>2058570714.475108</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1776563631454737</v>
+        <v>0.1094444560392436</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0222476968170588</v>
+        <v>0.02682076721799892</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1794623982.96886</v>
+        <v>1901203903.876334</v>
       </c>
       <c r="F62" t="n">
-        <v>0.192597854596942</v>
+        <v>0.1509281672196569</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03878014608115847</v>
+        <v>0.04727667433942243</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3470619324.017136</v>
+        <v>5055943196.177476</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1007477456718002</v>
+        <v>0.1031198886422978</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03304991436008829</v>
+        <v>0.03793596682482259</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>223</v>
+      </c>
+      <c r="J63" t="n">
+        <v>447</v>
+      </c>
+      <c r="K63" t="n">
+        <v>36.97002987609007</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5314514093.917873</v>
+        <v>5337248364.244729</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764913007814373</v>
+        <v>0.1339194797856111</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03241529970104486</v>
+        <v>0.03214686139078513</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>224</v>
+      </c>
+      <c r="J64" t="n">
+        <v>446</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.04126166076485</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4299066694.480918</v>
+        <v>4293477932.992382</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1676312921902022</v>
+        <v>0.1282816360233729</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02601417865673897</v>
+        <v>0.02213197852198462</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>321</v>
+      </c>
+      <c r="J65" t="n">
+        <v>446</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.36981652468352</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5558450986.316275</v>
+        <v>3543762109.105181</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1060504121431007</v>
+        <v>0.1233455679392565</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03865694688045437</v>
+        <v>0.03611302155031781</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>220</v>
+      </c>
+      <c r="J66" t="n">
+        <v>445</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2769532504.836764</v>
+        <v>2895987299.760121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08549596201444552</v>
+        <v>0.09342764770566594</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04160367026432013</v>
+        <v>0.03430072579377873</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3777622386.072128</v>
+        <v>4106925561.031495</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1458110159956019</v>
+        <v>0.1294359068741065</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04728425340513272</v>
+        <v>0.04230538046357043</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>243</v>
+      </c>
+      <c r="J68" t="n">
+        <v>447</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1790787293.441169</v>
+        <v>2226291021.056306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1556244792489532</v>
+        <v>0.1487955442974578</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04055813717837949</v>
+        <v>0.05331996813965538</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2650827043.303084</v>
+        <v>3171049896.954366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09790162406119431</v>
+        <v>0.09738509321479201</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04364353300800852</v>
+        <v>0.04581882657564015</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5568185891.774083</v>
+        <v>4657302531.571055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.155597432752434</v>
+        <v>0.1638150390098282</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02367415837487279</v>
+        <v>0.02513864056623486</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>307</v>
+      </c>
+      <c r="J71" t="n">
+        <v>446</v>
+      </c>
+      <c r="K71" t="n">
+        <v>36.15967529783709</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1556254683.12225</v>
+        <v>2146727989.108904</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1032137387379447</v>
+        <v>0.06976142093435947</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04016784060384049</v>
+        <v>0.05229992646584491</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3103551103.77299</v>
+        <v>2205840418.505084</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09050311122913032</v>
+        <v>0.1104052024161061</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04758119555770516</v>
+        <v>0.03937545111894546</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3605665644.031834</v>
+        <v>3723543564.70408</v>
       </c>
       <c r="F74" t="n">
-        <v>0.171570695637331</v>
+        <v>0.1652852982828479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02909884644816545</v>
+        <v>0.02695663673069912</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>128</v>
+      </c>
+      <c r="J74" t="n">
+        <v>447</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1803654425.93074</v>
+        <v>1903251458.218323</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1363986040881835</v>
+        <v>0.1506715473140862</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02936540726654059</v>
+        <v>0.03231394556572966</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3621508941.166568</v>
+        <v>5098450264.484199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08659841015609605</v>
+        <v>0.0953143470342729</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03112895037780162</v>
+        <v>0.02460174743784659</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>213</v>
+      </c>
+      <c r="J76" t="n">
+        <v>446</v>
+      </c>
+      <c r="K76" t="n">
+        <v>35.62467327584677</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1942309068.354314</v>
+        <v>1616126594.658244</v>
       </c>
       <c r="F77" t="n">
-        <v>0.160042092142872</v>
+        <v>0.1850245573659215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02140908468224461</v>
+        <v>0.01919515723992446</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4104687136.168636</v>
+        <v>3797529246.695862</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1114511416037441</v>
+        <v>0.124389024183144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05534011571098122</v>
+        <v>0.04237044355645024</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>447</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1792381664.100591</v>
+        <v>1365212949.505767</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1139188145486688</v>
+        <v>0.1245767844565126</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03105626555160011</v>
+        <v>0.03139966939589785</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5593547113.077552</v>
+        <v>3944153689.227948</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1052133994704908</v>
+        <v>0.07667293274684325</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02433395295569712</v>
+        <v>0.03243089300630781</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>218</v>
+      </c>
+      <c r="J80" t="n">
+        <v>446</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27.91171821275606</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4845896737.276466</v>
+        <v>4246249813.891236</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1040367149124119</v>
+        <v>0.1129957457529367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03088019974837344</v>
+        <v>0.03123839057821672</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>207</v>
+      </c>
+      <c r="J81" t="n">
+        <v>447</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4807841178.503135</v>
+        <v>3796784524.64598</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1913658963741107</v>
+        <v>0.1988676348215673</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02899461168726604</v>
+        <v>0.02676221684789911</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>299</v>
+      </c>
+      <c r="J82" t="n">
+        <v>446</v>
+      </c>
+      <c r="K82" t="n">
+        <v>30.19616089492835</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2362637392.424534</v>
+        <v>2313982011.783393</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1096142102150835</v>
+        <v>0.1242212032823667</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03398656031966624</v>
+        <v>0.02909891485086688</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1949651599.75987</v>
+        <v>2475826007.090104</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1101779484016705</v>
+        <v>0.0927013852951083</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04930272993769666</v>
+        <v>0.03172250666543507</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2787119000.496962</v>
+        <v>3499649139.617253</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1775091139389462</v>
+        <v>0.1228017427946827</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03788890764664938</v>
+        <v>0.03848312985994995</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>59</v>
+      </c>
+      <c r="J85" t="n">
+        <v>447</v>
+      </c>
+      <c r="K85" t="n">
+        <v>53.1726161225894</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2495282238.411663</v>
+        <v>2779141484.65377</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349526970834642</v>
+        <v>0.151022002414804</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0185132820954506</v>
+        <v>0.02486396683459036</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1155705782.591478</v>
+        <v>954586765.4143363</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1755176309923435</v>
+        <v>0.190717735536173</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02938085983213488</v>
+        <v>0.04291233306379005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3139318025.314315</v>
+        <v>3613523129.66813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.172875832864306</v>
+        <v>0.109524887720789</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04001234479278237</v>
+        <v>0.02771991362802185</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>447</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3334639838.927361</v>
+        <v>3299606985.61101</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1184536010230754</v>
+        <v>0.1077245367135548</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03972775248339568</v>
+        <v>0.0404104770847429</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1739734114.609968</v>
+        <v>1665896380.163523</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09413884783096096</v>
+        <v>0.1037219909553706</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03956227825186899</v>
+        <v>0.05111374504285053</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1775692546.981757</v>
+        <v>2038625680.863533</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567204365740832</v>
+        <v>0.1511107872859888</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03990650065709168</v>
+        <v>0.04734021668720795</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2696990327.644948</v>
+        <v>2400125967.892023</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07545733693214078</v>
+        <v>0.08481361132346764</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03417628045730624</v>
+        <v>0.03104905679447718</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3902628015.996696</v>
+        <v>3928998936.46506</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1227210506701868</v>
+        <v>0.09606777178033163</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05220783983299806</v>
+        <v>0.04246339158678843</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>214</v>
+      </c>
+      <c r="J93" t="n">
+        <v>447</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2353513114.787638</v>
+        <v>2035100109.243067</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1142161409842015</v>
+        <v>0.1690270710148139</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04037781297733819</v>
+        <v>0.02691843113085383</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3195435327.959995</v>
+        <v>2282709340.288098</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1293658564541327</v>
+        <v>0.1107112292225995</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04769810229437729</v>
+        <v>0.04693917340509241</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1912181751.858162</v>
+        <v>1714667611.491043</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359995573442923</v>
+        <v>0.1378455631217634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03331625654434801</v>
+        <v>0.03787262428680065</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4655298034.398325</v>
+        <v>5089011940.579697</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1173001113213612</v>
+        <v>0.1224449427826725</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02792016750555369</v>
+        <v>0.02482224699229115</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>234</v>
+      </c>
+      <c r="J97" t="n">
+        <v>446</v>
+      </c>
+      <c r="K97" t="n">
+        <v>36.07436855857273</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3685236612.924659</v>
+        <v>3270324123.055249</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09466576859081027</v>
+        <v>0.0825470376785947</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03277267136324386</v>
+        <v>0.02578552361760234</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>113</v>
+      </c>
+      <c r="J98" t="n">
+        <v>446</v>
+      </c>
+      <c r="K98" t="n">
+        <v>31.9118646824431</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2072302937.292937</v>
+        <v>2448402554.751801</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1079724378836886</v>
+        <v>0.1367160093730154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03474711313718738</v>
+        <v>0.02325314489861228</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4389693718.465405</v>
+        <v>3973705087.052163</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1563059154253831</v>
+        <v>0.1167725426114145</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0230796594304054</v>
+        <v>0.01922415104179586</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>207</v>
+      </c>
+      <c r="J100" t="n">
+        <v>447</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3298550170.249209</v>
+        <v>2756799489.131161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1345066159599121</v>
+        <v>0.2084581215819069</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0578068172882879</v>
+        <v>0.05161386490967067</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
